--- a/.idea/barcodes.xlsx
+++ b/.idea/barcodes.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>R$ 169,99</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>R$ 122,99</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>R$ 140,90</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>R$ 112,99</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
